--- a/data/Logan_Climate_Meta.xlsx
+++ b/data/Logan_Climate_Meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6cb6b6143dae0d7/Documents/R/browser/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90EEDC03-F000-49DE-9681-2944EBF338A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{90EEDC03-F000-49DE-9681-2944EBF338A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A3FCD1D-752C-49A4-9201-CB4DD4EE137E}"/>
   <bookViews>
-    <workbookView xWindow="10716" yWindow="48" windowWidth="10092" windowHeight="11844" xr2:uid="{C72B0973-B0C7-4A32-A15D-BC1A63232BB6}"/>
+    <workbookView xWindow="396" yWindow="396" windowWidth="10092" windowHeight="11844" xr2:uid="{C72B0973-B0C7-4A32-A15D-BC1A63232BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Station</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Logan USU</t>
-  </si>
-  <si>
-    <t>Logan Projection Data</t>
   </si>
   <si>
     <t>Elevation(m)</t>
@@ -413,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F860103-57B9-458F-9EAE-9F60872630FB}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -438,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -495,20 +492,6 @@
       </c>
       <c r="D5">
         <v>1460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>38.725000000000001</v>
-      </c>
-      <c r="C6">
-        <v>109.52119999999999</v>
-      </c>
-      <c r="D6">
-        <v>1344</v>
       </c>
     </row>
   </sheetData>
